--- a/Diseño detallado/Vista funcional/Modelo Enriquecido/Modelo enriquecido.xlsx
+++ b/Diseño detallado/Vista funcional/Modelo Enriquecido/Modelo enriquecido.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ApipetDocumentacion\Diseño detallado\Vista funcional\Modelo Enriquecido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED190BAA-FF0F-4BEF-8DE8-D7740EA1D344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154F0F70-D05B-44F6-934B-D50306DE0806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="3885" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="177">
   <si>
     <t>Tipo de dato</t>
   </si>
@@ -93,49 +93,25 @@
     <t>Dueño</t>
   </si>
   <si>
-    <t>Entidad que representa al propietario de la mascota y su principal representante</t>
-  </si>
-  <si>
     <t>Mascota</t>
-  </si>
-  <si>
-    <t>Entidad que representa un animal doméstico que se conserva con el propósito de brindar compañía al cuidador.</t>
   </si>
   <si>
     <t xml:space="preserve">Tipo mascota </t>
   </si>
   <si>
-    <t>Entidad que representa el tipo de mascota si es perro o gato</t>
-  </si>
-  <si>
     <t>Cuidado básico</t>
-  </si>
-  <si>
-    <t>Entidad que representa una actividad en beneficio de la integridad de la mascota</t>
   </si>
   <si>
     <t>Mapa</t>
   </si>
   <si>
-    <t>Entidad que permite ver el mapa de Rionegro</t>
-  </si>
-  <si>
     <t>Raza</t>
-  </si>
-  <si>
-    <t>Entidad que describe el nombre de raza que es dado por ciertas caracteristicas que posee la mascota</t>
   </si>
   <si>
     <t>Ubicación</t>
   </si>
   <si>
-    <t>Entidad que representa el nombre de la ubicación visitada por la mascota</t>
-  </si>
-  <si>
     <t>Categoría ubicación</t>
-  </si>
-  <si>
-    <t>Entidad que representa la función que desempeña la ubicación, sea veterinaria, centro de adopción, centro comercial.</t>
   </si>
   <si>
     <t>Volver al inicio</t>
@@ -506,16 +482,119 @@
   <si>
     <t>categoria</t>
   </si>
+  <si>
+    <t>Especie</t>
+  </si>
+  <si>
+    <t>Cuidado General</t>
+  </si>
+  <si>
+    <t>Cuidado Personalizado</t>
+  </si>
+  <si>
+    <t>Historial Médico</t>
+  </si>
+  <si>
+    <t>Emergencia</t>
+  </si>
+  <si>
+    <t>Procedimiento</t>
+  </si>
+  <si>
+    <t>Desparasitante</t>
+  </si>
+  <si>
+    <t>Vacuna</t>
+  </si>
+  <si>
+    <t>Esquema desparasitación</t>
+  </si>
+  <si>
+    <t>Esquema vacunación</t>
+  </si>
+  <si>
+    <t>Ciudad</t>
+  </si>
+  <si>
+    <t>Propietario ubicación</t>
+  </si>
+  <si>
+    <t>Horario</t>
+  </si>
+  <si>
+    <t>Servicio</t>
+  </si>
+  <si>
+    <t>Entidad que representa un dueño, la cual corresponde a la información pesonal del dueño, como sus datos de contacto, además de este ser el principal representante de la mascota.</t>
+  </si>
+  <si>
+    <t>Entidad que representa a una mascota, que es perro o gato</t>
+  </si>
+  <si>
+    <t>Entidad que describe la raza a la cual pertenece la mascota</t>
+  </si>
+  <si>
+    <t>Entidad que indica la especie a la que pertenece una mascota, como canina o felina.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engloba las pautas y recomendaciones generales para el cuidado de una mascota. </t>
+  </si>
+  <si>
+    <t>Contempla las necesidades específicas de cuidado que requiere una mascota en particular dependiendo su especie y raza.</t>
+  </si>
+  <si>
+    <t>Entidad que indica los procedimientos y emergencias que ha sufrido una mascota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entidad que indica las medidas a tomar en caso de una emergencia médica con una mascota. </t>
+  </si>
+  <si>
+    <t>Describe un procedimiento médico o quirúrgico que puede ser realizado en una mascota.</t>
+  </si>
+  <si>
+    <t>Hace referencia a los productos utilizados para desparasitar a una mascota y mantener su salud</t>
+  </si>
+  <si>
+    <t>Se refiere a las vacunas administradas a una mascota para prevenir enfermedades.</t>
+  </si>
+  <si>
+    <t>Define el programa o calendario de desparasitación para una mascota.</t>
+  </si>
+  <si>
+    <t>Establece el programa o calendario de vacunación para una mascota.</t>
+  </si>
+  <si>
+    <t>Indica la ciudad o localidad en la que se encuentra el dueño y/o la mascota.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Proporciona detalles sobre la ubicación física de una clínica veterinaria u otro lugar relevante como centro comercial o centro de adopción. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indica los horarios de atención, citas o disponibilidad relacionados con el cuidado de una mascota. </t>
+  </si>
+  <si>
+    <t>Hace referencia a los servicios disponibles para una mascota respecto a la ubicación que visita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proporciona un mapa que indica una ubicación específica relevante como centro comercial, centro de adopción y clínica veterinaria. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -530,33 +609,10 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Docs-Calibri"/>
     </font>
     <font>
       <u/>
@@ -581,7 +637,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -592,12 +648,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -693,97 +743,87 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2185,70 +2225,70 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="26" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="23" t="str">
+      <c r="A2" s="18" t="str">
         <f>'Objetos de Dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>26</v>
+      <c r="B2" s="27" t="s">
+        <v>20</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="23" t="str">
+      <c r="A3" s="18" t="str">
         <f>'Objetos de Dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="36" t="str">
+      <c r="B3" s="31" t="str">
         <f>'Objetos de Dominio'!$B$8</f>
-        <v>Entidad que representa el nombre de la ubicación visitada por la mascota</v>
+        <v>Entidad que indica los procedimientos y emergencias que ha sufrido una mascota</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="3"/>
@@ -2269,118 +2309,118 @@
       <c r="P4" s="3"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="J5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="K5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="L5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="M5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="N5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="O5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="16" t="s">
-        <v>141</v>
+      <c r="Q5" s="11" t="s">
+        <v>133</v>
       </c>
-      <c r="R5" s="16" t="s">
-        <v>142</v>
+      <c r="R5" s="11" t="s">
+        <v>134</v>
       </c>
-      <c r="S5" s="16" t="s">
-        <v>143</v>
+      <c r="S5" s="11" t="s">
+        <v>135</v>
       </c>
-      <c r="T5" s="16" t="s">
-        <v>144</v>
+      <c r="T5" s="11" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="17" t="s">
-        <v>145</v>
+      <c r="A6" s="12" t="s">
+        <v>137</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17" t="s">
-        <v>110</v>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12" t="s">
+        <v>102</v>
       </c>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17" t="s">
-        <v>111</v>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12" t="s">
+        <v>103</v>
       </c>
-      <c r="T6" s="17"/>
+      <c r="T6" s="12"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="17" t="s">
-        <v>146</v>
+      <c r="A7" s="12" t="s">
+        <v>138</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="3"/>
@@ -2400,14 +2440,14 @@
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="19" t="s">
-        <v>72</v>
+      <c r="A9" s="14" t="s">
+        <v>64</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>73</v>
+      <c r="C9" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -2423,13 +2463,13 @@
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="20" t="s">
-        <v>74</v>
+      <c r="A10" s="15" t="s">
+        <v>66</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>75</v>
+      <c r="B10" s="15" t="s">
+        <v>67</v>
       </c>
-      <c r="C10" s="17" t="str">
+      <c r="C10" s="12" t="str">
         <f>$A$6</f>
         <v>id_ubicacion</v>
       </c>
@@ -2447,13 +2487,13 @@
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="21" t="s">
-        <v>76</v>
+      <c r="A11" s="16" t="s">
+        <v>68</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>77</v>
+      <c r="B11" s="16" t="s">
+        <v>69</v>
       </c>
-      <c r="C11" s="21" t="str">
+      <c r="C11" s="16" t="str">
         <f>$A$10</f>
         <v>Combinación 1</v>
       </c>
@@ -2471,13 +2511,13 @@
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="21" t="s">
-        <v>78</v>
+      <c r="A12" s="16" t="s">
+        <v>70</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>79</v>
+      <c r="B12" s="16" t="s">
+        <v>71</v>
       </c>
-      <c r="C12" s="21" t="str">
+      <c r="C12" s="16" t="str">
         <f>$A$9</f>
         <v>Nombre combinación</v>
       </c>
@@ -2523,27 +2563,27 @@
       <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="32" t="s">
-        <v>80</v>
+      <c r="A15" s="30" t="s">
+        <v>72</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32" t="s">
-        <v>81</v>
+      <c r="B15" s="22"/>
+      <c r="C15" s="30" t="s">
+        <v>73</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32" t="s">
-        <v>82</v>
+      <c r="D15" s="22"/>
+      <c r="E15" s="30" t="s">
+        <v>74</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32" t="s">
-        <v>83</v>
+      <c r="F15" s="22"/>
+      <c r="G15" s="30" t="s">
+        <v>75</v>
       </c>
-      <c r="H15" s="31"/>
-      <c r="I15" s="22" t="s">
-        <v>84</v>
+      <c r="H15" s="22"/>
+      <c r="I15" s="17" t="s">
+        <v>76</v>
       </c>
-      <c r="J15" s="13" t="s">
-        <v>85</v>
+      <c r="J15" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2553,64 +2593,64 @@
       <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="33" t="s">
-        <v>141</v>
+      <c r="A16" s="25" t="s">
+        <v>133</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="33" t="s">
-        <v>142</v>
+      <c r="A17" s="25" t="s">
+        <v>134</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="33" t="s">
-        <v>143</v>
+      <c r="A18" s="25" t="s">
+        <v>135</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="33" t="s">
-        <v>144</v>
+      <c r="A19" s="25" t="s">
+        <v>136</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="35"/>
-      <c r="B20" s="27"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -2621,8 +2661,8 @@
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="35"/>
-      <c r="B21" s="27"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -2645,10 +2685,10 @@
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="13" t="s">
-        <v>100</v>
+      <c r="A23" s="8" t="s">
+        <v>92</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="5"/>
@@ -2661,8 +2701,8 @@
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -2673,8 +2713,8 @@
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -2685,8 +2725,8 @@
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -2774,73 +2814,73 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="26" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="13" t="str">
+      <c r="A2" s="8" t="str">
         <f>'Objetos de Dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>28</v>
+      <c r="B2" s="27" t="s">
+        <v>21</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="13" t="str">
+      <c r="A3" s="8" t="str">
         <f>'Objetos de Dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="29" t="str">
+      <c r="B3" s="28" t="str">
         <f>'Objetos de Dominio'!$B$9</f>
-        <v>Entidad que representa la función que desempeña la ubicación, sea veterinaria, centro de adopción, centro comercial.</v>
+        <v xml:space="preserve">Entidad que indica las medidas a tomar en caso de una emergencia médica con una mascota. </v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="31"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="22"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="14"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -2858,172 +2898,172 @@
       <c r="P4" s="6"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="J5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="K5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="L5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="M5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="N5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="O5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="16" t="s">
-        <v>147</v>
+      <c r="Q5" s="11" t="s">
+        <v>139</v>
       </c>
-      <c r="R5" s="16" t="s">
-        <v>148</v>
+      <c r="R5" s="11" t="s">
+        <v>140</v>
       </c>
-      <c r="S5" s="16" t="s">
-        <v>149</v>
+      <c r="S5" s="11" t="s">
+        <v>141</v>
       </c>
-      <c r="T5" s="16" t="s">
-        <v>150</v>
+      <c r="T5" s="11" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="17" t="s">
-        <v>151</v>
+      <c r="A6" s="12" t="s">
+        <v>143</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17" t="s">
-        <v>110</v>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12" t="s">
+        <v>102</v>
       </c>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17" t="s">
-        <v>111</v>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12" t="s">
+        <v>103</v>
       </c>
-      <c r="T6" s="17"/>
+      <c r="T6" s="12"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="17" t="s">
-        <v>152</v>
+      <c r="A7" s="12" t="s">
+        <v>144</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="19" t="s">
-        <v>72</v>
+      <c r="A11" s="14" t="s">
+        <v>64</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>73</v>
+      <c r="C11" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -3034,13 +3074,13 @@
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="20" t="s">
-        <v>74</v>
+      <c r="A12" s="15" t="s">
+        <v>66</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>75</v>
+      <c r="B12" s="15" t="s">
+        <v>67</v>
       </c>
-      <c r="C12" s="17" t="str">
+      <c r="C12" s="12" t="str">
         <f>$A$6</f>
         <v>id_categoriaubicacion</v>
       </c>
@@ -3059,13 +3099,13 @@
       <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="21" t="s">
-        <v>76</v>
+      <c r="A13" s="16" t="s">
+        <v>68</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>77</v>
+      <c r="B13" s="16" t="s">
+        <v>69</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="16">
         <f>$A$10</f>
         <v>0</v>
       </c>
@@ -3084,13 +3124,13 @@
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="21" t="s">
-        <v>78</v>
+      <c r="A14" s="16" t="s">
+        <v>70</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>79</v>
+      <c r="B14" s="16" t="s">
+        <v>71</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="16">
         <f>$A$9</f>
         <v>0</v>
       </c>
@@ -3138,88 +3178,88 @@
       <c r="P16" s="3"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="32" t="s">
-        <v>80</v>
+      <c r="A17" s="30" t="s">
+        <v>72</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="32" t="s">
-        <v>81</v>
+      <c r="B17" s="22"/>
+      <c r="C17" s="30" t="s">
+        <v>73</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="32" t="s">
-        <v>82</v>
+      <c r="D17" s="22"/>
+      <c r="E17" s="30" t="s">
+        <v>74</v>
       </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="32" t="s">
-        <v>83</v>
+      <c r="F17" s="22"/>
+      <c r="G17" s="30" t="s">
+        <v>75</v>
       </c>
-      <c r="H17" s="31"/>
-      <c r="I17" s="22" t="s">
-        <v>84</v>
+      <c r="H17" s="22"/>
+      <c r="I17" s="17" t="s">
+        <v>76</v>
       </c>
-      <c r="J17" s="13" t="s">
-        <v>85</v>
+      <c r="J17" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="33" t="s">
-        <v>147</v>
+      <c r="A18" s="25" t="s">
+        <v>139</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="33" t="s">
-        <v>148</v>
+      <c r="A19" s="25" t="s">
+        <v>140</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="33" t="s">
-        <v>149</v>
+      <c r="A20" s="25" t="s">
+        <v>141</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="33" t="s">
-        <v>150</v>
+      <c r="A21" s="25" t="s">
+        <v>142</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="35"/>
-      <c r="B22" s="27"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -3230,8 +3270,8 @@
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="35"/>
-      <c r="B23" s="27"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -3254,10 +3294,10 @@
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="13" t="s">
-        <v>100</v>
+      <c r="A25" s="8" t="s">
+        <v>92</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="5"/>
@@ -3270,8 +3310,8 @@
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -3282,8 +3322,8 @@
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -3294,8 +3334,8 @@
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -31371,7 +31411,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -31388,90 +31430,167 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="33" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="30">
-      <c r="A3" s="7" t="s">
-        <v>16</v>
+      <c r="B3" t="s">
+        <v>160</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>17</v>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="33" t="s">
+        <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="7" t="s">
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" customHeight="1">
+      <c r="A11" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" customHeight="1">
+      <c r="A13" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" customHeight="1">
+      <c r="A14" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" customHeight="1">
+      <c r="A15" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" customHeight="1">
+      <c r="A16" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" customHeight="1">
+      <c r="A17" s="33" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" customHeight="1">
+      <c r="A18" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A19" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A20" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>19</v>
+      <c r="B20" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30">
-      <c r="A5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="45">
-      <c r="A9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="11"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="12"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -32439,18 +32558,8 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" location="Dueño!A1" display="Dueño" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="A3" location="Mascota!A1" display="Mascota" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="A4" location="Tipo mascota!A1" display="Tipo mascota " xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="A5" location="Cuidado básico!A1" display="Cuidado básico" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="A6" location="Mapa!A1" display="Mapa" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="A7" location="Raza!A1" display="Raza" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="A8" location="Ubicación!A1" display="Ubicación" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="A9" location="Categoría ubicación!A1" display="Categoría ubicación" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -32460,7 +32569,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -32489,23 +32598,23 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="26" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
@@ -32518,27 +32627,27 @@
       <c r="Z1" s="5"/>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="13" t="str">
+      <c r="A2" s="8" t="str">
         <f>'Objetos de Dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
@@ -32551,28 +32660,28 @@
       <c r="Z2" s="5"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="13" t="str">
+      <c r="A3" s="8" t="str">
         <f>'Objetos de Dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="29" t="str">
+      <c r="B3" s="28" t="str">
         <f>'Objetos de Dominio'!$B$2</f>
-        <v>Entidad que representa al propietario de la mascota y su principal representante</v>
+        <v>Entidad que representa un dueño, la cual corresponde a la información pesonal del dueño, como sus datos de contacto, además de este ser el principal representante de la mascota.</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="31"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="22"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
@@ -32585,7 +32694,7 @@
       <c r="Z3" s="5"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="14"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -32613,65 +32722,65 @@
       <c r="Z4" s="5"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="J5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="K5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="L5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="M5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="N5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="O5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="P5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="R5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="S5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="T5" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q5" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="R5" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="S5" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="T5" s="16" t="s">
-        <v>49</v>
       </c>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
@@ -32681,49 +32790,49 @@
       <c r="Z5" s="5"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="17" t="s">
-        <v>50</v>
+      <c r="A6" s="12" t="s">
+        <v>42</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="N6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O6" s="17" t="s">
+      <c r="O6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="17" t="s">
-        <v>51</v>
+      <c r="P6" s="12" t="s">
+        <v>43</v>
       </c>
-      <c r="Q6" s="17" t="s">
-        <v>52</v>
+      <c r="Q6" s="12" t="s">
+        <v>44</v>
       </c>
-      <c r="R6" s="17" t="s">
-        <v>53</v>
+      <c r="R6" s="12" t="s">
+        <v>45</v>
       </c>
-      <c r="S6" s="17" t="s">
-        <v>53</v>
+      <c r="S6" s="12" t="s">
+        <v>45</v>
       </c>
-      <c r="T6" s="17" t="s">
-        <v>54</v>
+      <c r="T6" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
@@ -32733,46 +32842,46 @@
       <c r="Z6" s="5"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="17" t="s">
-        <v>55</v>
+      <c r="A7" s="12" t="s">
+        <v>47</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17" t="s">
-        <v>56</v>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12" t="s">
+        <v>48</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17" t="s">
-        <v>57</v>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12" t="s">
+        <v>49</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="N7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="17" t="s">
+      <c r="O7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="P7" s="18" t="s">
-        <v>58</v>
+      <c r="P7" s="13" t="s">
+        <v>50</v>
       </c>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
@@ -32781,46 +32890,46 @@
       <c r="Z7" s="5"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="17" t="s">
-        <v>59</v>
+      <c r="A8" s="12" t="s">
+        <v>51</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17" t="s">
-        <v>56</v>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12" t="s">
+        <v>48</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17" t="s">
-        <v>57</v>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12" t="s">
+        <v>49</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="L8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="M8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="17" t="s">
+      <c r="N8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="17" t="s">
+      <c r="O8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="P8" s="18" t="s">
-        <v>60</v>
+      <c r="P8" s="13" t="s">
+        <v>52</v>
       </c>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
@@ -32829,42 +32938,42 @@
       <c r="Z8" s="5"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="17" t="s">
-        <v>61</v>
+      <c r="A9" s="12" t="s">
+        <v>53</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="M9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="17" t="s">
+      <c r="N9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="17" t="s">
+      <c r="O9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="P9" s="18" t="s">
-        <v>62</v>
+      <c r="P9" s="13" t="s">
+        <v>54</v>
       </c>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
@@ -32873,44 +32982,44 @@
       <c r="Z9" s="5"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="17" t="s">
-        <v>63</v>
+      <c r="A10" s="12" t="s">
+        <v>55</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17" t="s">
-        <v>64</v>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12" t="s">
+        <v>56</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17" t="s">
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="M10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="17" t="s">
+      <c r="N10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="17" t="s">
+      <c r="O10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="P10" s="18" t="s">
-        <v>65</v>
+      <c r="P10" s="13" t="s">
+        <v>57</v>
       </c>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
@@ -32919,44 +33028,44 @@
       <c r="Z10" s="5"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="17" t="s">
-        <v>66</v>
+      <c r="A11" s="12" t="s">
+        <v>58</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17" t="s">
-        <v>67</v>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12" t="s">
+        <v>59</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17" t="s">
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="17" t="s">
+      <c r="M11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N11" s="17" t="s">
+      <c r="N11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O11" s="17" t="s">
+      <c r="O11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="P11" s="18" t="s">
-        <v>68</v>
+      <c r="P11" s="13" t="s">
+        <v>60</v>
       </c>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
@@ -32965,44 +33074,44 @@
       <c r="Z11" s="5"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="17" t="s">
-        <v>69</v>
+      <c r="A12" s="12" t="s">
+        <v>61</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17" t="s">
-        <v>70</v>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12" t="s">
+        <v>62</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17" t="s">
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="L12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="17" t="s">
+      <c r="M12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="17" t="s">
+      <c r="N12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="17" t="s">
+      <c r="O12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="P12" s="18" t="s">
-        <v>71</v>
+      <c r="P12" s="13" t="s">
+        <v>63</v>
       </c>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
@@ -33039,14 +33148,14 @@
       <c r="Z13" s="5"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="19" t="s">
-        <v>72</v>
+      <c r="A14" s="14" t="s">
+        <v>64</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>73</v>
+      <c r="C14" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -33073,13 +33182,13 @@
       <c r="Z14" s="5"/>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="20" t="s">
-        <v>74</v>
+      <c r="A15" s="15" t="s">
+        <v>66</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>75</v>
+      <c r="B15" s="15" t="s">
+        <v>67</v>
       </c>
-      <c r="C15" s="17" t="str">
+      <c r="C15" s="12" t="str">
         <f>$A$7</f>
         <v>nombre</v>
       </c>
@@ -33108,13 +33217,13 @@
       <c r="Z15" s="5"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="21" t="s">
-        <v>76</v>
+      <c r="A16" s="16" t="s">
+        <v>68</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>77</v>
+      <c r="B16" s="16" t="s">
+        <v>69</v>
       </c>
-      <c r="C16" s="21" t="str">
+      <c r="C16" s="16" t="str">
         <f>$A$10</f>
         <v>telefono</v>
       </c>
@@ -33143,13 +33252,13 @@
       <c r="Z16" s="5"/>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="21" t="s">
-        <v>78</v>
+      <c r="A17" s="16" t="s">
+        <v>70</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>79</v>
+      <c r="B17" s="16" t="s">
+        <v>71</v>
       </c>
-      <c r="C17" s="21" t="str">
+      <c r="C17" s="16" t="str">
         <f>$A$9</f>
         <v>correo</v>
       </c>
@@ -33221,27 +33330,27 @@
       <c r="Z19" s="5"/>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="32" t="s">
-        <v>80</v>
+      <c r="A20" s="30" t="s">
+        <v>72</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32" t="s">
-        <v>81</v>
+      <c r="B20" s="22"/>
+      <c r="C20" s="30" t="s">
+        <v>73</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32" t="s">
-        <v>82</v>
+      <c r="D20" s="22"/>
+      <c r="E20" s="30" t="s">
+        <v>74</v>
       </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="32" t="s">
-        <v>83</v>
+      <c r="F20" s="22"/>
+      <c r="G20" s="30" t="s">
+        <v>75</v>
       </c>
-      <c r="H20" s="31"/>
-      <c r="I20" s="22" t="s">
-        <v>84</v>
+      <c r="H20" s="22"/>
+      <c r="I20" s="17" t="s">
+        <v>76</v>
       </c>
-      <c r="J20" s="13" t="s">
-        <v>85</v>
+      <c r="J20" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -33261,25 +33370,25 @@
       <c r="Z20" s="5"/>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="33" t="s">
-        <v>46</v>
+      <c r="A21" s="25" t="s">
+        <v>38</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="34" t="s">
-        <v>86</v>
+      <c r="B21" s="22"/>
+      <c r="C21" s="21" t="s">
+        <v>78</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="34" t="s">
-        <v>87</v>
+      <c r="D21" s="22"/>
+      <c r="E21" s="21" t="s">
+        <v>79</v>
       </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="17" t="s">
-        <v>88</v>
+      <c r="F21" s="22"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="12" t="s">
+        <v>80</v>
       </c>
-      <c r="J21" s="17" t="s">
-        <v>89</v>
+      <c r="J21" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
@@ -33299,25 +33408,25 @@
       <c r="Z21" s="5"/>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="33" t="s">
-        <v>47</v>
+      <c r="A22" s="25" t="s">
+        <v>39</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="34" t="s">
-        <v>90</v>
+      <c r="B22" s="22"/>
+      <c r="C22" s="21" t="s">
+        <v>82</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="34" t="s">
-        <v>87</v>
+      <c r="D22" s="22"/>
+      <c r="E22" s="21" t="s">
+        <v>79</v>
       </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="17" t="s">
-        <v>91</v>
+      <c r="F22" s="22"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="12" t="s">
+        <v>83</v>
       </c>
-      <c r="J22" s="17" t="s">
-        <v>92</v>
+      <c r="J22" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -33337,27 +33446,27 @@
       <c r="Z22" s="5"/>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="33" t="s">
-        <v>48</v>
+      <c r="A23" s="25" t="s">
+        <v>40</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="34" t="s">
-        <v>93</v>
+      <c r="B23" s="22"/>
+      <c r="C23" s="21" t="s">
+        <v>85</v>
       </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="34" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="22"/>
+      <c r="I23" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="H23" s="31"/>
-      <c r="I23" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="J23" s="17" t="s">
-        <v>96</v>
+      <c r="J23" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
@@ -33377,25 +33486,25 @@
       <c r="Z23" s="5"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A24" s="33" t="s">
-        <v>49</v>
+      <c r="A24" s="25" t="s">
+        <v>41</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="34" t="s">
-        <v>97</v>
+      <c r="B24" s="22"/>
+      <c r="C24" s="21" t="s">
+        <v>89</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="34" t="s">
-        <v>87</v>
+      <c r="D24" s="22"/>
+      <c r="E24" s="21" t="s">
+        <v>79</v>
       </c>
-      <c r="F24" s="31"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="17" t="s">
-        <v>98</v>
+      <c r="F24" s="22"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="12" t="s">
+        <v>90</v>
       </c>
-      <c r="J24" s="17" t="s">
-        <v>99</v>
+      <c r="J24" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
@@ -33415,8 +33524,8 @@
       <c r="Z24" s="5"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A25" s="35"/>
-      <c r="B25" s="27"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -33443,8 +33552,8 @@
       <c r="Z25" s="5"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A26" s="35"/>
-      <c r="B26" s="27"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -33499,10 +33608,10 @@
       <c r="Z27" s="5"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A28" s="13" t="s">
-        <v>100</v>
+      <c r="A28" s="8" t="s">
+        <v>92</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="5"/>
@@ -33531,11 +33640,11 @@
       <c r="Z28" s="5"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A29" s="17" t="s">
-        <v>88</v>
+      <c r="A29" s="12" t="s">
+        <v>80</v>
       </c>
-      <c r="B29" s="17" t="s">
-        <v>101</v>
+      <c r="B29" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -33563,11 +33672,11 @@
       <c r="Z29" s="5"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A30" s="17" t="s">
-        <v>91</v>
+      <c r="A30" s="12" t="s">
+        <v>83</v>
       </c>
-      <c r="B30" s="21" t="s">
-        <v>102</v>
+      <c r="B30" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -33595,11 +33704,11 @@
       <c r="Z30" s="5"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="16" t="s">
         <v>95</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>103</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -33627,11 +33736,11 @@
       <c r="Z31" s="5"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A32" s="17" t="s">
-        <v>98</v>
+      <c r="A32" s="12" t="s">
+        <v>90</v>
       </c>
-      <c r="B32" s="21" t="s">
-        <v>104</v>
+      <c r="B32" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -60848,6 +60957,20 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="A25:B25"/>
@@ -60859,20 +60982,6 @@
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Objetos de Dominio!A1" display="Volver al inicio" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -60905,7 +61014,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -60934,219 +61045,219 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="26" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="23" t="str">
+      <c r="A2" s="18" t="str">
         <f>'Objetos de Dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>16</v>
+      <c r="B2" s="27" t="s">
+        <v>15</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="23" t="str">
+      <c r="A3" s="18" t="str">
         <f>'Objetos de Dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="36" t="str">
+      <c r="B3" s="31" t="str">
         <f>'Objetos de Dominio'!$B$3</f>
-        <v>Entidad que representa un animal doméstico que se conserva con el propósito de brindar compañía al cuidador.</v>
+        <v>Entidad que representa a una mascota, que es perro o gato</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="J5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="K5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="L5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="M5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="N5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="O5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="16" t="s">
-        <v>105</v>
+      <c r="Q5" s="11" t="s">
+        <v>97</v>
       </c>
-      <c r="R5" s="16" t="s">
-        <v>106</v>
+      <c r="R5" s="11" t="s">
+        <v>98</v>
       </c>
-      <c r="S5" s="16" t="s">
-        <v>107</v>
+      <c r="S5" s="11" t="s">
+        <v>99</v>
       </c>
-      <c r="T5" s="16" t="s">
-        <v>108</v>
+      <c r="T5" s="11" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A6" s="17" t="s">
-        <v>109</v>
+      <c r="A6" s="12" t="s">
+        <v>101</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17" t="s">
-        <v>110</v>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12" t="s">
+        <v>102</v>
       </c>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17" t="s">
-        <v>111</v>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12" t="s">
+        <v>103</v>
       </c>
-      <c r="T6" s="17"/>
+      <c r="T6" s="12"/>
     </row>
     <row r="7" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A7" s="17" t="s">
-        <v>55</v>
+      <c r="A7" s="12" t="s">
+        <v>47</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1">
-      <c r="A8" s="17" t="s">
-        <v>69</v>
+      <c r="A8" s="12" t="s">
+        <v>61</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
     </row>
     <row r="9" spans="1:20" ht="17.25" customHeight="1"/>
     <row r="10" spans="1:20" ht="15" customHeight="1">
-      <c r="A10" s="19" t="s">
-        <v>72</v>
+      <c r="A10" s="14" t="s">
+        <v>64</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>73</v>
+      <c r="C10" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -61167,13 +61278,13 @@
       <c r="T10" s="3"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="20" t="s">
-        <v>74</v>
+      <c r="A11" s="15" t="s">
+        <v>66</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>75</v>
+      <c r="B11" s="15" t="s">
+        <v>67</v>
       </c>
-      <c r="C11" s="17" t="str">
+      <c r="C11" s="12" t="str">
         <f>$A$6</f>
         <v>id_mascota</v>
       </c>
@@ -61196,13 +61307,13 @@
       <c r="T11" s="3"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="21" t="s">
-        <v>76</v>
+      <c r="A12" s="16" t="s">
+        <v>68</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>77</v>
+      <c r="B12" s="16" t="s">
+        <v>69</v>
       </c>
-      <c r="C12" s="21" t="str">
+      <c r="C12" s="16" t="str">
         <f>$A$10</f>
         <v>Nombre combinación</v>
       </c>
@@ -61225,13 +61336,13 @@
       <c r="T12" s="3"/>
     </row>
     <row r="13" spans="1:20" ht="15" customHeight="1">
-      <c r="A13" s="21" t="s">
-        <v>78</v>
+      <c r="A13" s="16" t="s">
+        <v>70</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>79</v>
+      <c r="B13" s="16" t="s">
+        <v>71</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="16">
         <f>$A$9</f>
         <v>0</v>
       </c>
@@ -61273,88 +61384,88 @@
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="32" t="s">
-        <v>80</v>
+      <c r="A16" s="30" t="s">
+        <v>72</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="32" t="s">
-        <v>81</v>
+      <c r="B16" s="22"/>
+      <c r="C16" s="30" t="s">
+        <v>73</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32" t="s">
-        <v>82</v>
+      <c r="D16" s="22"/>
+      <c r="E16" s="30" t="s">
+        <v>74</v>
       </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32" t="s">
-        <v>83</v>
+      <c r="F16" s="22"/>
+      <c r="G16" s="30" t="s">
+        <v>75</v>
       </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="22" t="s">
-        <v>84</v>
+      <c r="H16" s="22"/>
+      <c r="I16" s="17" t="s">
+        <v>76</v>
       </c>
-      <c r="J16" s="13" t="s">
-        <v>85</v>
+      <c r="J16" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="33" t="s">
-        <v>105</v>
+      <c r="A17" s="25" t="s">
+        <v>97</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="33" t="s">
-        <v>106</v>
+      <c r="A18" s="25" t="s">
+        <v>98</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="33" t="s">
-        <v>107</v>
+      <c r="A19" s="25" t="s">
+        <v>99</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="33" t="s">
-        <v>108</v>
+      <c r="A20" s="25" t="s">
+        <v>100</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A21" s="35"/>
-      <c r="B21" s="27"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -61365,8 +61476,8 @@
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A22" s="35"/>
-      <c r="B22" s="27"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -61389,10 +61500,10 @@
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A24" s="13" t="s">
-        <v>100</v>
+      <c r="A24" s="8" t="s">
+        <v>92</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="5"/>
@@ -61405,8 +61516,8 @@
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -61417,8 +61528,8 @@
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -61429,8 +61540,8 @@
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -62463,7 +62574,9 @@
   </sheetPr>
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -62473,338 +62586,338 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="26" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="23" t="str">
+      <c r="A2" s="18" t="str">
         <f>'Objetos de Dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>24</v>
+      <c r="B2" s="27" t="s">
+        <v>19</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="23" t="str">
+      <c r="A3" s="18" t="str">
         <f>'Objetos de Dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="36" t="str">
+      <c r="B3" s="31" t="str">
         <f>'Objetos de Dominio'!$B$7</f>
-        <v>Entidad que describe el nombre de raza que es dado por ciertas caracteristicas que posee la mascota</v>
+        <v>Contempla las necesidades específicas de cuidado que requiere una mascota en particular dependiendo su especie y raza.</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="J5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="K5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="L5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="M5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="N5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="O5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="Q5" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="T6" s="12"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="R5" s="16" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="S5" s="16" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="T5" s="16" t="s">
-        <v>115</v>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="14" t="s">
+        <v>64</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="T6" s="17"/>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>73</v>
+      <c r="C15" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -62815,13 +62928,13 @@
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="20" t="s">
-        <v>74</v>
+      <c r="A16" s="15" t="s">
+        <v>66</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>75</v>
+      <c r="B16" s="15" t="s">
+        <v>67</v>
       </c>
-      <c r="C16" s="17" t="str">
+      <c r="C16" s="12" t="str">
         <f>$A$6</f>
         <v>id_raza</v>
       </c>
@@ -62834,13 +62947,13 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="21" t="s">
-        <v>76</v>
+      <c r="A17" s="16" t="s">
+        <v>68</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>77</v>
+      <c r="B17" s="16" t="s">
+        <v>69</v>
       </c>
-      <c r="C17" s="21" t="str">
+      <c r="C17" s="16" t="str">
         <f>$A$10</f>
         <v>temperamento</v>
       </c>
@@ -62853,13 +62966,13 @@
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="21" t="s">
-        <v>78</v>
+      <c r="A18" s="16" t="s">
+        <v>70</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>79</v>
+      <c r="B18" s="16" t="s">
+        <v>71</v>
       </c>
-      <c r="C18" s="21" t="str">
+      <c r="C18" s="16" t="str">
         <f>$A$9</f>
         <v>descripcion</v>
       </c>
@@ -62889,88 +63002,88 @@
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="32" t="s">
-        <v>80</v>
+      <c r="A21" s="30" t="s">
+        <v>72</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32" t="s">
-        <v>81</v>
+      <c r="B21" s="22"/>
+      <c r="C21" s="30" t="s">
+        <v>73</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32" t="s">
-        <v>82</v>
+      <c r="D21" s="22"/>
+      <c r="E21" s="30" t="s">
+        <v>74</v>
       </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="32" t="s">
-        <v>83</v>
+      <c r="F21" s="22"/>
+      <c r="G21" s="30" t="s">
+        <v>75</v>
       </c>
-      <c r="H21" s="31"/>
-      <c r="I21" s="22" t="s">
-        <v>84</v>
+      <c r="H21" s="22"/>
+      <c r="I21" s="17" t="s">
+        <v>76</v>
       </c>
-      <c r="J21" s="13" t="s">
-        <v>85</v>
+      <c r="J21" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="33" t="s">
-        <v>112</v>
+      <c r="A22" s="25" t="s">
+        <v>104</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="33" t="s">
-        <v>113</v>
+      <c r="A23" s="25" t="s">
+        <v>105</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="33" t="s">
-        <v>114</v>
+      <c r="A24" s="25" t="s">
+        <v>106</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="33" t="s">
-        <v>115</v>
+      <c r="A25" s="25" t="s">
+        <v>107</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="35"/>
-      <c r="B26" s="27"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -62981,8 +63094,8 @@
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="35"/>
-      <c r="B27" s="27"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -63005,10 +63118,10 @@
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="13" t="s">
-        <v>100</v>
+      <c r="A29" s="8" t="s">
+        <v>92</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="5"/>
@@ -63021,8 +63134,8 @@
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -63033,8 +63146,8 @@
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -63045,8 +63158,8 @@
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -63106,7 +63219,9 @@
   </sheetPr>
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -63122,202 +63237,202 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="26" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="23" t="str">
+      <c r="A2" s="18" t="str">
         <f>'Objetos de Dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>18</v>
+      <c r="B2" s="27" t="s">
+        <v>16</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="23" t="str">
+      <c r="A3" s="18" t="str">
         <f>'Objetos de Dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="36" t="str">
+      <c r="B3" s="31" t="str">
         <f>'Objetos de Dominio'!$B$4</f>
-        <v>Entidad que representa el tipo de mascota si es perro o gato</v>
+        <v>Entidad que describe la raza a la cual pertenece la mascota</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="J5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="K5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="L5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="M5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="N5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="O5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="16" t="s">
-        <v>123</v>
+      <c r="Q5" s="11" t="s">
+        <v>115</v>
       </c>
-      <c r="R5" s="16" t="s">
-        <v>124</v>
+      <c r="R5" s="11" t="s">
+        <v>116</v>
       </c>
-      <c r="S5" s="16" t="s">
-        <v>125</v>
+      <c r="S5" s="11" t="s">
+        <v>117</v>
       </c>
-      <c r="T5" s="16" t="s">
-        <v>126</v>
+      <c r="T5" s="11" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="17" t="s">
-        <v>127</v>
+      <c r="A6" s="12" t="s">
+        <v>119</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17" t="s">
-        <v>110</v>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12" t="s">
+        <v>102</v>
       </c>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17" t="s">
-        <v>111</v>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12" t="s">
+        <v>103</v>
       </c>
-      <c r="T6" s="17"/>
+      <c r="T6" s="12"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="17" t="s">
-        <v>55</v>
+      <c r="A7" s="12" t="s">
+        <v>47</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="B8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
+      <c r="B8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="19" t="s">
-        <v>72</v>
+      <c r="A9" s="14" t="s">
+        <v>64</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>73</v>
+      <c r="C9" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -63326,11 +63441,11 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
@@ -63339,13 +63454,13 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="20" t="s">
-        <v>74</v>
+      <c r="A10" s="15" t="s">
+        <v>66</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>75</v>
+      <c r="B10" s="15" t="s">
+        <v>67</v>
       </c>
-      <c r="C10" s="17" t="str">
+      <c r="C10" s="12" t="str">
         <f>$A$6</f>
         <v>id_tipomascota</v>
       </c>
@@ -63356,20 +63471,20 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="21" t="s">
-        <v>76</v>
+      <c r="A11" s="16" t="s">
+        <v>68</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>77</v>
+      <c r="B11" s="16" t="s">
+        <v>69</v>
       </c>
-      <c r="C11" s="21" t="str">
+      <c r="C11" s="16" t="str">
         <f>$A$10</f>
         <v>Combinación 1</v>
       </c>
@@ -63382,13 +63497,13 @@
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="21" t="s">
-        <v>78</v>
+      <c r="A12" s="16" t="s">
+        <v>70</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>79</v>
+      <c r="B12" s="16" t="s">
+        <v>71</v>
       </c>
-      <c r="C12" s="21" t="str">
+      <c r="C12" s="16" t="str">
         <f>$A$9</f>
         <v>Nombre combinación</v>
       </c>
@@ -63418,88 +63533,88 @@
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="32" t="s">
-        <v>80</v>
+      <c r="A15" s="30" t="s">
+        <v>72</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32" t="s">
-        <v>81</v>
+      <c r="B15" s="22"/>
+      <c r="C15" s="30" t="s">
+        <v>73</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32" t="s">
-        <v>82</v>
+      <c r="D15" s="22"/>
+      <c r="E15" s="30" t="s">
+        <v>74</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32" t="s">
-        <v>83</v>
+      <c r="F15" s="22"/>
+      <c r="G15" s="30" t="s">
+        <v>75</v>
       </c>
-      <c r="H15" s="31"/>
-      <c r="I15" s="22" t="s">
-        <v>84</v>
+      <c r="H15" s="22"/>
+      <c r="I15" s="17" t="s">
+        <v>76</v>
       </c>
-      <c r="J15" s="13" t="s">
-        <v>85</v>
+      <c r="J15" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="33" t="s">
-        <v>128</v>
+      <c r="A16" s="25" t="s">
+        <v>120</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="33" t="s">
-        <v>129</v>
+      <c r="A17" s="25" t="s">
+        <v>121</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="33" t="s">
-        <v>130</v>
+      <c r="A18" s="25" t="s">
+        <v>122</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="33" t="s">
-        <v>131</v>
+      <c r="A19" s="25" t="s">
+        <v>123</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="35"/>
-      <c r="B20" s="27"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -63510,8 +63625,8 @@
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="35"/>
-      <c r="B21" s="27"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -63534,10 +63649,10 @@
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="13" t="s">
-        <v>100</v>
+      <c r="A23" s="8" t="s">
+        <v>92</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="5"/>
@@ -63550,8 +63665,8 @@
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -63562,8 +63677,8 @@
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -63574,8 +63689,8 @@
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -63635,7 +63750,9 @@
   </sheetPr>
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -63648,240 +63765,240 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="26" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="23" t="str">
+      <c r="A2" s="18" t="str">
         <f>'Objetos de Dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>20</v>
+      <c r="B2" s="27" t="s">
+        <v>17</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="23" t="str">
+      <c r="A3" s="18" t="str">
         <f>'Objetos de Dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="36" t="str">
+      <c r="B3" s="31" t="str">
         <f>'Objetos de Dominio'!$B$5</f>
-        <v>Entidad que representa una actividad en beneficio de la integridad de la mascota</v>
+        <v>Entidad que indica la especie a la que pertenece una mascota, como canina o felina.</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="J5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="K5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="L5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="M5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="N5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="O5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="16" t="s">
-        <v>132</v>
+      <c r="Q5" s="11" t="s">
+        <v>124</v>
       </c>
-      <c r="R5" s="16" t="s">
-        <v>133</v>
+      <c r="R5" s="11" t="s">
+        <v>125</v>
       </c>
-      <c r="S5" s="16" t="s">
-        <v>134</v>
+      <c r="S5" s="11" t="s">
+        <v>126</v>
       </c>
-      <c r="T5" s="16" t="s">
-        <v>135</v>
+      <c r="T5" s="11" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="17" t="s">
-        <v>136</v>
+      <c r="A6" s="12" t="s">
+        <v>128</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17" t="s">
-        <v>110</v>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12" t="s">
+        <v>102</v>
       </c>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17" t="s">
-        <v>111</v>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12" t="s">
+        <v>103</v>
       </c>
-      <c r="T6" s="17"/>
+      <c r="T6" s="12"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="17" t="s">
-        <v>55</v>
+      <c r="A7" s="12" t="s">
+        <v>47</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="17" t="s">
-        <v>137</v>
+      <c r="A8" s="12" t="s">
+        <v>129</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="19" t="s">
-        <v>72</v>
+      <c r="A11" s="14" t="s">
+        <v>64</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>73</v>
+      <c r="C11" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -63892,13 +64009,13 @@
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="20" t="s">
-        <v>74</v>
+      <c r="A12" s="15" t="s">
+        <v>66</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>75</v>
+      <c r="B12" s="15" t="s">
+        <v>67</v>
       </c>
-      <c r="C12" s="17" t="str">
+      <c r="C12" s="12" t="str">
         <f>$A$6</f>
         <v>id_cuidado</v>
       </c>
@@ -63911,13 +64028,13 @@
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="21" t="s">
-        <v>76</v>
+      <c r="A13" s="16" t="s">
+        <v>68</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>77</v>
+      <c r="B13" s="16" t="s">
+        <v>69</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="16">
         <f>$A$10</f>
         <v>0</v>
       </c>
@@ -63930,13 +64047,13 @@
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="21" t="s">
-        <v>78</v>
+      <c r="A14" s="16" t="s">
+        <v>70</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>79</v>
+      <c r="B14" s="16" t="s">
+        <v>71</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="16">
         <f>$A$9</f>
         <v>0</v>
       </c>
@@ -63966,88 +64083,88 @@
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="32" t="s">
-        <v>80</v>
+      <c r="A17" s="30" t="s">
+        <v>72</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="32" t="s">
-        <v>81</v>
+      <c r="B17" s="22"/>
+      <c r="C17" s="30" t="s">
+        <v>73</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="32" t="s">
-        <v>82</v>
+      <c r="D17" s="22"/>
+      <c r="E17" s="30" t="s">
+        <v>74</v>
       </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="32" t="s">
-        <v>83</v>
+      <c r="F17" s="22"/>
+      <c r="G17" s="30" t="s">
+        <v>75</v>
       </c>
-      <c r="H17" s="31"/>
-      <c r="I17" s="22" t="s">
-        <v>84</v>
+      <c r="H17" s="22"/>
+      <c r="I17" s="17" t="s">
+        <v>76</v>
       </c>
-      <c r="J17" s="13" t="s">
-        <v>85</v>
+      <c r="J17" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="33" t="s">
-        <v>132</v>
+      <c r="A18" s="25" t="s">
+        <v>124</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="33" t="s">
-        <v>133</v>
+      <c r="A19" s="25" t="s">
+        <v>125</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="33" t="s">
-        <v>134</v>
+      <c r="A20" s="25" t="s">
+        <v>126</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="33" t="s">
-        <v>135</v>
+      <c r="A21" s="25" t="s">
+        <v>127</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="35"/>
-      <c r="B22" s="27"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -64058,8 +64175,8 @@
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="35"/>
-      <c r="B23" s="27"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -64082,10 +64199,10 @@
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="13" t="s">
-        <v>100</v>
+      <c r="A25" s="8" t="s">
+        <v>92</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="5"/>
@@ -64098,8 +64215,8 @@
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -64110,8 +64227,8 @@
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -64122,8 +64239,8 @@
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -64196,176 +64313,176 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="26" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="23" t="str">
+      <c r="A2" s="18" t="str">
         <f>'Objetos de Dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>22</v>
+      <c r="B2" s="27" t="s">
+        <v>18</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="23" t="str">
+      <c r="A3" s="18" t="str">
         <f>'Objetos de Dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="36" t="str">
+      <c r="B3" s="31" t="str">
         <f>'Objetos de Dominio'!$B$6</f>
-        <v>Entidad que permite ver el mapa de Rionegro</v>
+        <v xml:space="preserve">Engloba las pautas y recomendaciones generales para el cuidado de una mascota. </v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="J5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="K5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="L5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="M5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="N5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="O5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="16" t="s">
-        <v>138</v>
+      <c r="Q5" s="11" t="s">
+        <v>130</v>
       </c>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="17" t="s">
-        <v>139</v>
+      <c r="A6" s="12" t="s">
+        <v>131</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17" t="s">
-        <v>111</v>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12" t="s">
+        <v>103</v>
       </c>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="17" t="s">
-        <v>140</v>
+      <c r="A7" s="12" t="s">
+        <v>132</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="3"/>
@@ -64385,14 +64502,14 @@
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="19" t="s">
-        <v>72</v>
+      <c r="A9" s="14" t="s">
+        <v>64</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>73</v>
+      <c r="C9" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -64408,13 +64525,13 @@
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="20" t="s">
-        <v>74</v>
+      <c r="A10" s="15" t="s">
+        <v>66</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>75</v>
+      <c r="B10" s="15" t="s">
+        <v>67</v>
       </c>
-      <c r="C10" s="17" t="str">
+      <c r="C10" s="12" t="str">
         <f>$A$6</f>
         <v>id_mapa</v>
       </c>
@@ -64427,13 +64544,13 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="21" t="s">
-        <v>76</v>
+      <c r="A11" s="16" t="s">
+        <v>68</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>77</v>
+      <c r="B11" s="16" t="s">
+        <v>69</v>
       </c>
-      <c r="C11" s="21" t="str">
+      <c r="C11" s="16" t="str">
         <f>$A$10</f>
         <v>Combinación 1</v>
       </c>
@@ -64446,13 +64563,13 @@
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="21" t="s">
-        <v>78</v>
+      <c r="A12" s="16" t="s">
+        <v>70</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>79</v>
+      <c r="B12" s="16" t="s">
+        <v>71</v>
       </c>
-      <c r="C12" s="21" t="str">
+      <c r="C12" s="16" t="str">
         <f>$A$9</f>
         <v>Nombre combinación</v>
       </c>
@@ -64482,82 +64599,82 @@
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="32" t="s">
-        <v>80</v>
+      <c r="A15" s="30" t="s">
+        <v>72</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32" t="s">
-        <v>81</v>
+      <c r="B15" s="22"/>
+      <c r="C15" s="30" t="s">
+        <v>73</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32" t="s">
-        <v>82</v>
+      <c r="D15" s="22"/>
+      <c r="E15" s="30" t="s">
+        <v>74</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32" t="s">
-        <v>83</v>
+      <c r="F15" s="22"/>
+      <c r="G15" s="30" t="s">
+        <v>75</v>
       </c>
-      <c r="H15" s="31"/>
-      <c r="I15" s="22" t="s">
-        <v>84</v>
+      <c r="H15" s="22"/>
+      <c r="I15" s="17" t="s">
+        <v>76</v>
       </c>
-      <c r="J15" s="13" t="s">
-        <v>85</v>
+      <c r="J15" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="33" t="s">
-        <v>138</v>
+      <c r="A16" s="25" t="s">
+        <v>130</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="37"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="37"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="37"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="35"/>
-      <c r="B20" s="27"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -64568,8 +64685,8 @@
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="35"/>
-      <c r="B21" s="27"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -64592,10 +64709,10 @@
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="13" t="s">
-        <v>100</v>
+      <c r="A23" s="8" t="s">
+        <v>92</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="5"/>
@@ -64608,8 +64725,8 @@
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -64620,8 +64737,8 @@
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -64632,8 +64749,8 @@
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
